--- a/Графики обучения FairMOT.xlsx
+++ b/Графики обучения FairMOT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. AI\6. Стажировки\1. УИИ\1. Самолет\Git\people_tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6194C2CD-6E74-4CE9-8FF9-BBAA0A2DFED3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB62E84-F0F7-4955-906C-4296007645C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1EEC75A7-D656-430D-A079-C907C2666473}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15816" activeTab="2" xr2:uid="{1EEC75A7-D656-430D-A079-C907C2666473}"/>
   </bookViews>
   <sheets>
     <sheet name="resdcn34_ep54" sheetId="1" r:id="rId1"/>
@@ -14498,14 +14498,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83819</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14539,12 +14539,12 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -14914,8 +14914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE8FE73-BAE1-4C63-AE31-0725B4BBC223}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16498,8 +16498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121F2FCE-8732-4945-8E12-D32C514F89AE}">
   <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="AE17" sqref="AE17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19950,7 +19950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4442B4A9-05B6-4142-97BB-B87EFDB43998}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
